--- a/tracker/Error config upload template.xlsx
+++ b/tracker/Error config upload template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangken/py/dfpm_tools/tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC9CD7-1DFE-5B4E-9A02-E159DE97AB5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B208CD-D513-5F47-8F86-F2DE1B6DD66B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="67">
   <si>
     <t>ORGANIZATION_CODE</t>
   </si>
@@ -94,55 +94,103 @@
     <t>ISRV-QCOW-UK9-163</t>
   </si>
   <si>
+    <t>NFVIS 3.6 SW failed test. De-bug and required to convert to NFVIS 3.8</t>
+  </si>
+  <si>
     <t>INSBU</t>
   </si>
   <si>
     <t>105944610-1</t>
   </si>
   <si>
+    <t>N9K-C9504-B3-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>N9K-SC-A</t>
+  </si>
+  <si>
     <t>N9K-C9504-FAN</t>
   </si>
   <si>
-    <t>N9K-C9504-B3-E</t>
+    <t>N9K-PAC-3000W-B</t>
+  </si>
+  <si>
+    <t>EBBU</t>
+  </si>
+  <si>
+    <t>CAB-AC-C6K-TWLK</t>
   </si>
   <si>
     <t>N9K-C9500-ACK</t>
   </si>
   <si>
-    <t>N9K-PAC-3000W-B</t>
+    <t>N9K-C9504-RMK</t>
+  </si>
+  <si>
+    <t>N9K-X9732C-EX</t>
   </si>
   <si>
     <t>N9K-C9500-LC-CV</t>
   </si>
   <si>
+    <t>N9K-C9504-FM-E</t>
+  </si>
+  <si>
+    <t>ACI-N9KDK9-13.0</t>
+  </si>
+  <si>
+    <t>N9K-SELECT-SUP-A</t>
+  </si>
+  <si>
+    <t>N9K-SUP-A</t>
+  </si>
+  <si>
     <t>N9K-SELECT-C95PAC</t>
   </si>
   <si>
-    <t>N9K-SC-A</t>
-  </si>
-  <si>
-    <t>N9K-X9732C-EX</t>
-  </si>
-  <si>
-    <t>N9K-C9504-FM-E</t>
-  </si>
-  <si>
-    <t>N9K-SUP-A</t>
-  </si>
-  <si>
-    <t>N9K-C9504-RMK</t>
-  </si>
-  <si>
-    <t>EBBU</t>
-  </si>
-  <si>
-    <t>CAB-AC-C6K-TWLK</t>
-  </si>
-  <si>
-    <t>N9K-SELECT-SUP-A</t>
-  </si>
-  <si>
-    <t>ACI-N9KDK9-13.0</t>
+    <t>FDO</t>
+  </si>
+  <si>
+    <t>112077344-2</t>
+  </si>
+  <si>
+    <t>ISR4331-SEC/K9</t>
+  </si>
+  <si>
+    <t>SAMPLE</t>
+  </si>
+  <si>
+    <t>4330 SW AND LIC</t>
+  </si>
+  <si>
+    <t>43 IOS SW</t>
+  </si>
+  <si>
+    <t>SISR4300UK9-173</t>
+  </si>
+  <si>
+    <t>4330 TECH PAK</t>
+  </si>
+  <si>
+    <t>SL-4330-IPB-K9</t>
+  </si>
+  <si>
+    <t>4400 MODULES</t>
+  </si>
+  <si>
+    <t>4400 NIM MOD</t>
+  </si>
+  <si>
+    <t>NIM-2GE-CU-SFP</t>
+  </si>
+  <si>
+    <t>4330 PWR OPT</t>
+  </si>
+  <si>
+    <t>C13 PWR CABLE</t>
   </si>
   <si>
     <t>CAB-AC</t>
@@ -151,83 +199,35 @@
     <t>4400 EXPANSIONS</t>
   </si>
   <si>
-    <t>C13 PWR CABLE</t>
-  </si>
-  <si>
-    <t>4400 MODULES</t>
-  </si>
-  <si>
-    <t>4400 NIM MOD</t>
+    <t>PWR-4330-AC</t>
   </si>
   <si>
     <t>SM-S-BLANK</t>
   </si>
   <si>
-    <t>FDO</t>
-  </si>
-  <si>
-    <t>SL-4330-IPB-K9</t>
-  </si>
-  <si>
-    <t>PWR-4330-AC</t>
-  </si>
-  <si>
     <t>MEM-FLSH-4G</t>
   </si>
   <si>
+    <t>SL-4330-SEC-K9</t>
+  </si>
+  <si>
     <t>MEM-43-4G</t>
   </si>
   <si>
-    <t>SL-4330-SEC-K9</t>
-  </si>
-  <si>
-    <t>NIM-2GE-CU-SFP</t>
-  </si>
-  <si>
-    <t>4330 SW AND LIC</t>
-  </si>
-  <si>
-    <t>43 IOS SW</t>
-  </si>
-  <si>
-    <t>4330 PWR OPT</t>
-  </si>
-  <si>
-    <t>4330 TECH PAK</t>
-  </si>
-  <si>
     <t>FL-4330-HSEC-K9</t>
   </si>
   <si>
-    <t>NFVIS 3.6 SW failed test. De-bug and required to convert to NFVIS 3.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>112077344-2</t>
-  </si>
-  <si>
-    <t>ISR4331-SEC/K9</t>
-  </si>
-  <si>
-    <t>SISR4300UK9-173</t>
-  </si>
-  <si>
-    <t>SAMPLE</t>
-  </si>
-  <si>
-    <t>KW</t>
-  </si>
-  <si>
-    <t>Added_by</t>
+    <t>Sample 1</t>
+  </si>
+  <si>
+    <t>Sample 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,12 +240,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF660099"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -283,12 +277,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,13 +584,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -606,10 +599,9 @@
     <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,11 +623,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -655,13 +644,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -681,13 +667,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -707,13 +690,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -733,13 +713,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -759,13 +736,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -785,13 +759,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -811,13 +782,10 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -837,13 +805,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -863,13 +828,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -889,13 +851,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -915,13 +874,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -941,13 +897,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -967,21 +920,18 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -993,825 +943,4853 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
-      <c r="H16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F17">
         <v>6</v>
       </c>
-      <c r="H17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="H18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F19">
         <v>8</v>
       </c>
-      <c r="H19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="H20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="H21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22">
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="H22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23">
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="H23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
-      <c r="H24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F25">
         <v>8</v>
       </c>
-      <c r="H25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="H26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="H27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28">
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="H28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29">
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="H29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F30">
         <v>6</v>
       </c>
-      <c r="H30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31">
         <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F31">
         <v>6</v>
       </c>
-      <c r="H31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>47</v>
       </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>54</v>
-      </c>
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="H33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="H34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="H35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="H36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D37">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="H37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D38">
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="H38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D39">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="H39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D40">
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
-      <c r="H40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D41">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="H41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D42">
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
-      <c r="H42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D43">
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
-      <c r="H43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D44">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="H44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D45">
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="H45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D46">
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
-      <c r="H46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D47">
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="H47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
-      <c r="H48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D49">
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
-      <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D50">
         <v>19</v>
       </c>
       <c r="E50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63">
+        <v>23</v>
+      </c>
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65">
+        <v>27</v>
+      </c>
+      <c r="E65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66">
+        <v>29</v>
+      </c>
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67">
+        <v>31</v>
+      </c>
+      <c r="E67" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>54</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
         <v>58</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>59</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s">
+        <v>60</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>62</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85">
+        <v>17</v>
+      </c>
+      <c r="E85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95">
+        <v>16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98">
+        <v>21</v>
+      </c>
+      <c r="E98" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99">
+        <v>23</v>
+      </c>
+      <c r="E99" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101">
+        <v>27</v>
+      </c>
+      <c r="E101" t="s">
+        <v>41</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102">
+        <v>29</v>
+      </c>
+      <c r="E102" t="s">
+        <v>42</v>
+      </c>
+      <c r="F102">
+        <v>6</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103">
+        <v>31</v>
+      </c>
+      <c r="E103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>45</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>47</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>44</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>49</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108" t="s">
+        <v>50</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>51</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110" t="s">
+        <v>52</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>53</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>54</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>43</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>44</v>
+      </c>
+      <c r="D113">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>55</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>43</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>56</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>44</v>
+      </c>
+      <c r="D115">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>57</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>58</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117">
+        <v>13</v>
+      </c>
+      <c r="E117" t="s">
+        <v>59</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>44</v>
+      </c>
+      <c r="D118">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>60</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>44</v>
+      </c>
+      <c r="D119">
+        <v>15</v>
+      </c>
+      <c r="E119" t="s">
+        <v>61</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>44</v>
+      </c>
+      <c r="D120">
+        <v>16</v>
+      </c>
+      <c r="E120" t="s">
+        <v>62</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121">
+        <v>17</v>
+      </c>
+      <c r="E121" t="s">
+        <v>63</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122">
+        <v>19</v>
+      </c>
+      <c r="E122" t="s">
+        <v>64</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="G124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125">
+        <v>6</v>
+      </c>
+      <c r="G125" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126">
+        <v>6</v>
+      </c>
+      <c r="E126" t="s">
+        <v>31</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>33</v>
+      </c>
+      <c r="F127">
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128">
+        <v>10</v>
+      </c>
+      <c r="E128" t="s">
+        <v>34</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>35</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>36</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131">
+        <v>16</v>
+      </c>
+      <c r="E131" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132">
+        <v>18</v>
+      </c>
+      <c r="E132" t="s">
+        <v>37</v>
+      </c>
+      <c r="F132">
+        <v>4</v>
+      </c>
+      <c r="G132" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133">
+        <v>19</v>
+      </c>
+      <c r="E133" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133">
+        <v>8</v>
+      </c>
+      <c r="G133" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134">
+        <v>21</v>
+      </c>
+      <c r="E134" t="s">
+        <v>39</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135">
+        <v>23</v>
+      </c>
+      <c r="E135" t="s">
+        <v>40</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136">
+        <v>25</v>
+      </c>
+      <c r="E136" t="s">
+        <v>41</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137">
+        <v>27</v>
+      </c>
+      <c r="E137" t="s">
+        <v>41</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138">
+        <v>29</v>
+      </c>
+      <c r="E138" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138">
+        <v>6</v>
+      </c>
+      <c r="G138" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139">
+        <v>31</v>
+      </c>
+      <c r="E139" t="s">
+        <v>31</v>
+      </c>
+      <c r="F139">
+        <v>6</v>
+      </c>
+      <c r="G139" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>44</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>45</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>44</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>47</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>44</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>48</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>44</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>49</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>43</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>44</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144" t="s">
+        <v>50</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>44</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145" t="s">
+        <v>51</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>43</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>44</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146" t="s">
+        <v>52</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>43</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>44</v>
+      </c>
+      <c r="D147">
+        <v>7</v>
+      </c>
+      <c r="E147" t="s">
+        <v>53</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>43</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>44</v>
+      </c>
+      <c r="D148">
+        <v>8</v>
+      </c>
+      <c r="E148" t="s">
+        <v>54</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>43</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>44</v>
+      </c>
+      <c r="D149">
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>55</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>43</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>44</v>
+      </c>
+      <c r="D150">
+        <v>10</v>
+      </c>
+      <c r="E150" t="s">
+        <v>56</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>43</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D151">
+        <v>11</v>
+      </c>
+      <c r="E151" t="s">
+        <v>57</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>43</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>44</v>
+      </c>
+      <c r="D152">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>58</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>43</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>44</v>
+      </c>
+      <c r="D153">
+        <v>13</v>
+      </c>
+      <c r="E153" t="s">
+        <v>59</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>43</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>44</v>
+      </c>
+      <c r="D154">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s">
+        <v>60</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>43</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>44</v>
+      </c>
+      <c r="D155">
+        <v>15</v>
+      </c>
+      <c r="E155" t="s">
+        <v>61</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>43</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>44</v>
+      </c>
+      <c r="D156">
+        <v>16</v>
+      </c>
+      <c r="E156" t="s">
+        <v>62</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>43</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>44</v>
+      </c>
+      <c r="D157">
+        <v>17</v>
+      </c>
+      <c r="E157" t="s">
+        <v>63</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>43</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>44</v>
+      </c>
+      <c r="D158">
+        <v>19</v>
+      </c>
+      <c r="E158" t="s">
+        <v>64</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>27</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160">
+        <v>4</v>
+      </c>
+      <c r="G160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="E161" t="s">
+        <v>30</v>
+      </c>
+      <c r="F161">
+        <v>6</v>
+      </c>
+      <c r="G161" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>25</v>
+      </c>
+      <c r="C162" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162">
+        <v>6</v>
+      </c>
+      <c r="E162" t="s">
+        <v>31</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" t="s">
+        <v>32</v>
+      </c>
+      <c r="C163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163">
+        <v>8</v>
+      </c>
+      <c r="E163" t="s">
+        <v>33</v>
+      </c>
+      <c r="F163">
+        <v>8</v>
+      </c>
+      <c r="G163" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164">
+        <v>10</v>
+      </c>
+      <c r="E164" t="s">
+        <v>34</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="G164" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165">
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
+        <v>35</v>
+      </c>
+      <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="G165" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166">
+        <v>14</v>
+      </c>
+      <c r="E166" t="s">
+        <v>36</v>
+      </c>
+      <c r="F166">
+        <v>2</v>
+      </c>
+      <c r="G166" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167">
+        <v>16</v>
+      </c>
+      <c r="E167" t="s">
+        <v>36</v>
+      </c>
+      <c r="F167">
+        <v>2</v>
+      </c>
+      <c r="G167" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168" t="s">
+        <v>26</v>
+      </c>
+      <c r="D168">
+        <v>18</v>
+      </c>
+      <c r="E168" t="s">
+        <v>37</v>
+      </c>
+      <c r="F168">
+        <v>4</v>
+      </c>
+      <c r="G168" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" t="s">
+        <v>25</v>
+      </c>
+      <c r="C169" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169">
+        <v>19</v>
+      </c>
+      <c r="E169" t="s">
+        <v>38</v>
+      </c>
+      <c r="F169">
+        <v>8</v>
+      </c>
+      <c r="G169" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>25</v>
+      </c>
+      <c r="C170" t="s">
+        <v>26</v>
+      </c>
+      <c r="D170">
+        <v>21</v>
+      </c>
+      <c r="E170" t="s">
+        <v>39</v>
+      </c>
+      <c r="F170">
+        <v>2</v>
+      </c>
+      <c r="G170" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" t="s">
+        <v>26</v>
+      </c>
+      <c r="D171">
+        <v>23</v>
+      </c>
+      <c r="E171" t="s">
+        <v>40</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172">
+        <v>25</v>
+      </c>
+      <c r="E172" t="s">
+        <v>41</v>
+      </c>
+      <c r="F172">
+        <v>2</v>
+      </c>
+      <c r="G172" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C173" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173">
+        <v>27</v>
+      </c>
+      <c r="E173" t="s">
+        <v>41</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
+      </c>
+      <c r="G173" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" t="s">
+        <v>26</v>
+      </c>
+      <c r="D174">
+        <v>29</v>
+      </c>
+      <c r="E174" t="s">
+        <v>42</v>
+      </c>
+      <c r="F174">
+        <v>6</v>
+      </c>
+      <c r="G174" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175">
+        <v>31</v>
+      </c>
+      <c r="E175" t="s">
+        <v>31</v>
+      </c>
+      <c r="F175">
+        <v>6</v>
+      </c>
+      <c r="G175" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>43</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>44</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>45</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>43</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>44</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>47</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>43</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>44</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178" t="s">
+        <v>48</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>43</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>44</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+      <c r="E179" t="s">
+        <v>49</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>43</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>44</v>
+      </c>
+      <c r="D180">
+        <v>4</v>
+      </c>
+      <c r="E180" t="s">
+        <v>50</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>43</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>44</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>51</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>43</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>44</v>
+      </c>
+      <c r="D182">
+        <v>6</v>
+      </c>
+      <c r="E182" t="s">
+        <v>52</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>43</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>44</v>
+      </c>
+      <c r="D183">
+        <v>7</v>
+      </c>
+      <c r="E183" t="s">
+        <v>53</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>43</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>44</v>
+      </c>
+      <c r="D184">
+        <v>8</v>
+      </c>
+      <c r="E184" t="s">
+        <v>54</v>
+      </c>
+      <c r="F184">
+        <v>2</v>
+      </c>
+      <c r="G184" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>43</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>44</v>
+      </c>
+      <c r="D185">
+        <v>9</v>
+      </c>
+      <c r="E185" t="s">
+        <v>55</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>43</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>44</v>
+      </c>
+      <c r="D186">
+        <v>10</v>
+      </c>
+      <c r="E186" t="s">
+        <v>56</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>43</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>44</v>
+      </c>
+      <c r="D187">
+        <v>11</v>
+      </c>
+      <c r="E187" t="s">
+        <v>57</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>43</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>44</v>
+      </c>
+      <c r="D188">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
+        <v>58</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>43</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>44</v>
+      </c>
+      <c r="D189">
+        <v>13</v>
+      </c>
+      <c r="E189" t="s">
+        <v>59</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>43</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>44</v>
+      </c>
+      <c r="D190">
+        <v>14</v>
+      </c>
+      <c r="E190" t="s">
+        <v>60</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>43</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>44</v>
+      </c>
+      <c r="D191">
+        <v>15</v>
+      </c>
+      <c r="E191" t="s">
+        <v>61</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>43</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" t="s">
+        <v>44</v>
+      </c>
+      <c r="D192">
+        <v>16</v>
+      </c>
+      <c r="E192" t="s">
+        <v>62</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>43</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>44</v>
+      </c>
+      <c r="D193">
+        <v>17</v>
+      </c>
+      <c r="E193" t="s">
+        <v>63</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>43</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
+        <v>44</v>
+      </c>
+      <c r="D194">
+        <v>19</v>
+      </c>
+      <c r="E194" t="s">
+        <v>64</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>27</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+      <c r="G195" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196" t="s">
+        <v>29</v>
+      </c>
+      <c r="F196">
+        <v>4</v>
+      </c>
+      <c r="G196" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" t="s">
+        <v>25</v>
+      </c>
+      <c r="C197" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>30</v>
+      </c>
+      <c r="F197">
+        <v>6</v>
+      </c>
+      <c r="G197" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198" t="s">
+        <v>26</v>
+      </c>
+      <c r="D198">
+        <v>6</v>
+      </c>
+      <c r="E198" t="s">
+        <v>31</v>
+      </c>
+      <c r="F198">
+        <v>2</v>
+      </c>
+      <c r="G198" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" t="s">
+        <v>32</v>
+      </c>
+      <c r="C199" t="s">
+        <v>26</v>
+      </c>
+      <c r="D199">
+        <v>8</v>
+      </c>
+      <c r="E199" t="s">
+        <v>33</v>
+      </c>
+      <c r="F199">
+        <v>8</v>
+      </c>
+      <c r="G199" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" t="s">
+        <v>26</v>
+      </c>
+      <c r="D200">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
+        <v>34</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+      <c r="G200" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" t="s">
+        <v>25</v>
+      </c>
+      <c r="C201" t="s">
+        <v>26</v>
+      </c>
+      <c r="D201">
+        <v>12</v>
+      </c>
+      <c r="E201" t="s">
+        <v>35</v>
+      </c>
+      <c r="F201">
+        <v>2</v>
+      </c>
+      <c r="G201" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" t="s">
+        <v>25</v>
+      </c>
+      <c r="C202" t="s">
+        <v>26</v>
+      </c>
+      <c r="D202">
+        <v>14</v>
+      </c>
+      <c r="E202" t="s">
+        <v>36</v>
+      </c>
+      <c r="F202">
+        <v>2</v>
+      </c>
+      <c r="G202" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" t="s">
+        <v>25</v>
+      </c>
+      <c r="C203" t="s">
+        <v>26</v>
+      </c>
+      <c r="D203">
+        <v>16</v>
+      </c>
+      <c r="E203" t="s">
+        <v>36</v>
+      </c>
+      <c r="F203">
+        <v>2</v>
+      </c>
+      <c r="G203" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
+        <v>25</v>
+      </c>
+      <c r="C204" t="s">
+        <v>26</v>
+      </c>
+      <c r="D204">
+        <v>18</v>
+      </c>
+      <c r="E204" t="s">
+        <v>37</v>
+      </c>
+      <c r="F204">
+        <v>4</v>
+      </c>
+      <c r="G204" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" t="s">
+        <v>25</v>
+      </c>
+      <c r="C205" t="s">
+        <v>26</v>
+      </c>
+      <c r="D205">
+        <v>19</v>
+      </c>
+      <c r="E205" t="s">
+        <v>38</v>
+      </c>
+      <c r="F205">
+        <v>8</v>
+      </c>
+      <c r="G205" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206" t="s">
+        <v>25</v>
+      </c>
+      <c r="C206" t="s">
+        <v>26</v>
+      </c>
+      <c r="D206">
+        <v>21</v>
+      </c>
+      <c r="E206" t="s">
+        <v>39</v>
+      </c>
+      <c r="F206">
+        <v>2</v>
+      </c>
+      <c r="G206" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207" t="s">
+        <v>25</v>
+      </c>
+      <c r="C207" t="s">
+        <v>26</v>
+      </c>
+      <c r="D207">
+        <v>23</v>
+      </c>
+      <c r="E207" t="s">
+        <v>40</v>
+      </c>
+      <c r="F207">
+        <v>2</v>
+      </c>
+      <c r="G207" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" t="s">
+        <v>25</v>
+      </c>
+      <c r="C208" t="s">
+        <v>26</v>
+      </c>
+      <c r="D208">
+        <v>25</v>
+      </c>
+      <c r="E208" t="s">
+        <v>41</v>
+      </c>
+      <c r="F208">
+        <v>2</v>
+      </c>
+      <c r="G208" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" t="s">
+        <v>25</v>
+      </c>
+      <c r="C209" t="s">
+        <v>26</v>
+      </c>
+      <c r="D209">
+        <v>27</v>
+      </c>
+      <c r="E209" t="s">
+        <v>41</v>
+      </c>
+      <c r="F209">
+        <v>2</v>
+      </c>
+      <c r="G209" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" t="s">
+        <v>25</v>
+      </c>
+      <c r="C210" t="s">
+        <v>26</v>
+      </c>
+      <c r="D210">
+        <v>29</v>
+      </c>
+      <c r="E210" t="s">
+        <v>42</v>
+      </c>
+      <c r="F210">
+        <v>6</v>
+      </c>
+      <c r="G210" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" t="s">
+        <v>25</v>
+      </c>
+      <c r="C211" t="s">
+        <v>26</v>
+      </c>
+      <c r="D211">
+        <v>31</v>
+      </c>
+      <c r="E211" t="s">
+        <v>31</v>
+      </c>
+      <c r="F211">
+        <v>6</v>
+      </c>
+      <c r="G211" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>43</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" t="s">
+        <v>44</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>45</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>43</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" t="s">
+        <v>44</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>47</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>43</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" t="s">
+        <v>44</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
+      <c r="E214" t="s">
+        <v>48</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>43</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" t="s">
+        <v>44</v>
+      </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+      <c r="E215" t="s">
+        <v>49</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>43</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" t="s">
+        <v>44</v>
+      </c>
+      <c r="D216">
+        <v>4</v>
+      </c>
+      <c r="E216" t="s">
+        <v>50</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>43</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" t="s">
+        <v>44</v>
+      </c>
+      <c r="D217">
+        <v>5</v>
+      </c>
+      <c r="E217" t="s">
+        <v>51</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>43</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" t="s">
+        <v>44</v>
+      </c>
+      <c r="D218">
+        <v>6</v>
+      </c>
+      <c r="E218" t="s">
+        <v>52</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>43</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>44</v>
+      </c>
+      <c r="D219">
+        <v>7</v>
+      </c>
+      <c r="E219" t="s">
+        <v>53</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>43</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" t="s">
+        <v>44</v>
+      </c>
+      <c r="D220">
+        <v>8</v>
+      </c>
+      <c r="E220" t="s">
+        <v>54</v>
+      </c>
+      <c r="F220">
+        <v>2</v>
+      </c>
+      <c r="G220" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>43</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" t="s">
+        <v>44</v>
+      </c>
+      <c r="D221">
+        <v>9</v>
+      </c>
+      <c r="E221" t="s">
+        <v>55</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>43</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" t="s">
+        <v>44</v>
+      </c>
+      <c r="D222">
+        <v>10</v>
+      </c>
+      <c r="E222" t="s">
+        <v>56</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>43</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" t="s">
+        <v>44</v>
+      </c>
+      <c r="D223">
+        <v>11</v>
+      </c>
+      <c r="E223" t="s">
+        <v>57</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>43</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" t="s">
+        <v>44</v>
+      </c>
+      <c r="D224">
+        <v>12</v>
+      </c>
+      <c r="E224" t="s">
+        <v>58</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>43</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" t="s">
+        <v>44</v>
+      </c>
+      <c r="D225">
+        <v>13</v>
+      </c>
+      <c r="E225" t="s">
+        <v>59</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>43</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" t="s">
+        <v>44</v>
+      </c>
+      <c r="D226">
+        <v>14</v>
+      </c>
+      <c r="E226" t="s">
+        <v>60</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>43</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" t="s">
+        <v>44</v>
+      </c>
+      <c r="D227">
+        <v>15</v>
+      </c>
+      <c r="E227" t="s">
+        <v>61</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>43</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" t="s">
+        <v>44</v>
+      </c>
+      <c r="D228">
+        <v>16</v>
+      </c>
+      <c r="E228" t="s">
+        <v>62</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>43</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" t="s">
+        <v>44</v>
+      </c>
+      <c r="D229">
+        <v>17</v>
+      </c>
+      <c r="E229" t="s">
+        <v>63</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>43</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" t="s">
+        <v>44</v>
+      </c>
+      <c r="D230">
+        <v>19</v>
+      </c>
+      <c r="E230" t="s">
+        <v>64</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
-    <sortCondition ref="C2:C31"/>
-    <sortCondition ref="D2:D31"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/tracker/Error config upload template.xlsx
+++ b/tracker/Error config upload template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangken/py/dfpm_tools/tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDD67AC-2BBE-BE43-8930-E235F5A97788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08DB042-469B-2C42-B46D-443D406ED601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ORGANIZATION_CODE</t>
   </si>
@@ -46,7 +46,10 @@
     <t xml:space="preserve">For upload new error configs, add in comments about the error (on Option 0 line); </t>
   </si>
   <si>
-    <t>For remove config from database, can leave this blank.</t>
+    <t>For remove config from database, can leave REMARK Col blank.</t>
+  </si>
+  <si>
+    <t>Pls include full BOM including main and option PIDs</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -468,6 +471,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
